--- a/medicine/Psychotrope/Marckloff/Marckloff.xlsx
+++ b/medicine/Psychotrope/Marckloff/Marckloff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marckloff est la marque commerciale d'une bière artisanale spéciale de la ville belge de Durbuy dans la province de Luxembourg.  Elle a été  brassée depuis 1989 dans la microbrasserie de « La Ferme au Chêne » située dans le centre de la petite ville de Durbuy et est actuellement produite au château de Durbuy.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une bière ambrée de haute fermentation titrant 6,5 % de volume d'alcool. Elle est refermentée en bouteilles de 75 cl ou de 33cl. Cette marque reprend le nom de Philippe Marckloff, propriétaire d'une brasserie à Durbuy vers 1560 et a été créée en 1989 par Jacques et Michel Trine aidés par le maître brasseur Daniel Prignon de la brasserie Fantôme à Soy. Deux ans plus tard, la « Confrérie de la Marckloff » est créée  par des responsables du tourisme de la ville[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une bière ambrée de haute fermentation titrant 6,5 % de volume d'alcool. Elle est refermentée en bouteilles de 75 cl ou de 33cl. Cette marque reprend le nom de Philippe Marckloff, propriétaire d'une brasserie à Durbuy vers 1560 et a été créée en 1989 par Jacques et Michel Trine aidés par le maître brasseur Daniel Prignon de la brasserie Fantôme à Soy. Deux ans plus tard, la « Confrérie de la Marckloff » est créée  par des responsables du tourisme de la ville.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Brasserie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La microbrasserie de « La Ferme au Chêne » est installée dans un local vitré. Contrairement à ce que son lieu d'implantation laisse penser, il ne s'agit pas d'une ferme-brasserie. Les visiteurs peuvent assister à toutes les opérations de la fabrication. L'entrée est libre. Cette bière produite en petite quantité est uniquement disponible sur le lieu de brassage et de consommation de « La Ferme au Chêne ». 
-À la fin du mois de juin 2013, la brasserie a fermé ses portes dans l'attente d'une possible reprise[2].
+À la fin du mois de juin 2013, la brasserie a fermé ses portes dans l'attente d'une possible reprise.
 Depuis le début d'août 2014, une équipe de Durbuysiens a décidé de reprendre l'aventure brassicole à « La Ferme au Chêne ». 
-En 2019, la brasserie s'installe dans les anciennes écuries du château de Durbuy[3]
+En 2019, la brasserie s'installe dans les anciennes écuries du château de Durbuy
 </t>
         </is>
       </c>
